--- a/src/core/data/data_generation/compare.xlsx
+++ b/src/core/data/data_generation/compare.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyethm/Documents/GR/GeneticSchedulingAlgorithm/src/core/data/data_generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94475D10-5B2D-0449-8593-13BD8072A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF1EAE-C745-6640-A75F-1224FEA0952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18480" windowHeight="17500" xr2:uid="{3A7BACA0-6DE3-ED4E-B1BA-FD0B94FA39E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{3A7BACA0-6DE3-ED4E-B1BA-FD0B94FA39E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$B$2:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Số lượng công việc cần lập lịch</t>
   </si>
@@ -68,7 +83,10 @@
     <t>Số lượng cá thể được xét duyệt</t>
   </si>
   <si>
-    <t>Đồ thị so sánh hiệu năng của giải thuật</t>
+    <t>Population Size</t>
+  </si>
+  <si>
+    <t>RunTime</t>
   </si>
 </sst>
 </file>
@@ -76,8 +94,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -119,14 +137,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,6 +167,4060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-VN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.1990201473236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.595124244689901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.929654836653999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.062637805938699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.030323982238698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.7159309387207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.534263849258402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.526992082595797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382.81895279884299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>532.77682614326397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAF7-054E-9D48-676EA117ED1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="548445120"/>
+        <c:axId val="548925952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="548445120"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="ss" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548925952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="548925952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548445120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13966417312622001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70014119148254395</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>1.3825919628143299</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1.7929830551147401</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>2.8063659667968701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3352408409118599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7212553024291899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0913119316101003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8429713249206499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F90C-4E4E-B4AD-C3E6D6EF473C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="569763968"/>
+        <c:axId val="555466816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="569763968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian chạy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555466816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555466816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kích</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> thước quần thể</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569763968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.1990201473236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.595124244689901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.929654836653999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.062637805938699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.030323982238698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.7159309387207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.534263849258402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.526992082595797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382.81895279884299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>532.77682614326397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FF4-E94B-8B1F-AE9F8058F6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91710144"/>
+        <c:axId val="569544128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91710144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian chạy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569544128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="569544128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Kích</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> thước quần thể</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-VN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91710144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16336584091186501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.59229183197021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2551810741424498</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6953229904174796</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1.10105013847</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.27536392211914</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.508678913116398</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3AE-F849-A58C-758F314F7F91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="558434960"/>
+        <c:axId val="114458288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="558434960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="114458288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114458288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558434960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>729137</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>17231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88B9879-9FB6-C824-0FCE-B684C3535193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>489350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>105685</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B829B6C5-4504-26D7-DE23-49502CAE1E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123448</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD96D11-5FD9-F092-BF20-9D4CC09B64B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>474251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97159</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D84B61-3656-ADC3-46EA-596D057EF7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,17 +4520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E4C34-7764-D94F-97EC-3D24EA49CBB1}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D2" zoomScale="124" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
@@ -520,16 +4598,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>0.79945087432861295</v>
+        <v>0.84036517143249501</v>
       </c>
       <c r="F9" s="3">
         <v>20</v>
@@ -552,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
-        <v>0.45403599739074701</v>
+        <v>0.79945087432861295</v>
       </c>
       <c r="F10" s="3">
         <v>20</v>
@@ -578,10 +4656,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>1.2129390239715501</v>
+        <v>0.45403599739074701</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
@@ -598,16 +4676,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5">
-        <v>0.84036517143249501</v>
+        <v>1.2129390239715501</v>
       </c>
       <c r="F12" s="3">
         <v>20</v>
@@ -624,16 +4702,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5">
-        <v>532.77682614326397</v>
+        <v>0.50004816050000001</v>
       </c>
       <c r="F13" s="3">
         <v>20</v>
@@ -649,7 +4727,18 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="5"/>
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.46046686172399998</v>
+      </c>
       <c r="F14" s="3">
         <v>30</v>
       </c>
@@ -664,7 +4753,18 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="5"/>
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.50718712806701605</v>
+      </c>
       <c r="F15" s="3">
         <v>30</v>
       </c>
@@ -679,7 +4779,18 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="5"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>865</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.3825919628143299</v>
+      </c>
       <c r="F16" s="3">
         <v>30</v>
       </c>
@@ -693,8 +4804,19 @@
         <v>0.16336584091186501</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.70014119148254395</v>
+      </c>
       <c r="F17" s="3">
         <v>30</v>
       </c>
@@ -708,8 +4830,19 @@
         <v>6.6953229904174796</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="5"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F18" s="3">
         <v>30</v>
       </c>
@@ -723,15 +4856,619 @@
         <v>20.508678913116398</v>
       </c>
     </row>
-    <row r="23" spans="4:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="F23" s="1" t="s">
-        <v>11</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1145</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.7929830551147401</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1">
+        <v>154</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.27536392211914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.13966417312622001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1">
+        <v>205</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2255</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.0913119316101003</v>
+      </c>
+      <c r="F21" s="3">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1">
+        <v>52</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2050</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.7212553024291899</v>
+      </c>
+      <c r="F22" s="3">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>56</v>
+      </c>
+      <c r="H22" s="1">
+        <v>409</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3130</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.8429713249206499</v>
+      </c>
+      <c r="H23" s="1">
+        <v>103</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.10105013847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1745</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.8063659667968701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>532.77682614326397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5590</v>
+      </c>
+      <c r="D26" s="5">
+        <v>29.7159309387207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9735</v>
+      </c>
+      <c r="D27" s="5">
+        <v>382.81895279884299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3855</v>
+      </c>
+      <c r="D28" s="5">
+        <v>21.929654836653999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8230</v>
+      </c>
+      <c r="D29" s="7">
+        <v>34.526992082595797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
+        <v>830</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.1990201473236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6185</v>
+      </c>
+      <c r="D31" s="1">
+        <v>29.534263849258402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2425</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10.595124244689901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4655</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20.030323982238698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4180</v>
+      </c>
+      <c r="D34" s="7">
+        <v>16.062637805938699</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F9:I18">
-    <sortCondition ref="G9:G18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:D18">
+    <sortCondition ref="A9:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970D0024-A967-6E42-AC0B-99B1CA6AFC9C}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8">
+        <v>3.1990201473236</v>
+      </c>
+      <c r="C2" s="1">
+        <v>830</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4">
+        <v>0.16336584091186501</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8">
+        <v>10.595124244689901</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2425</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.13966417312622001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4">
+        <v>3.59229183197021</v>
+      </c>
+      <c r="I3" s="2">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8">
+        <v>21.929654836653999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3855</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.70014119148254395</v>
+      </c>
+      <c r="F4" s="1">
+        <v>400</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4">
+        <v>3.2551810741424498</v>
+      </c>
+      <c r="I4" s="2">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8">
+        <v>16.062637805938699</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4180</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.3825919628143299</v>
+      </c>
+      <c r="F5" s="1">
+        <v>865</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="I5" s="1">
+        <v>52</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8">
+        <v>20.030323982238698</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4655</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.7929830551147401</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1145</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4">
+        <v>6.6953229904174796</v>
+      </c>
+      <c r="I6" s="2">
+        <v>103</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8">
+        <v>29.7159309387207</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5590</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.8063659667968701</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1745</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>1.10105013847</v>
+      </c>
+      <c r="I7" s="1">
+        <v>103</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8">
+        <v>29.534263849258402</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6185</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.3352408409118599</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1940</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>1.27536392211914</v>
+      </c>
+      <c r="I8" s="1">
+        <v>154</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8">
+        <v>34.526992082595797</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8230</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.7212553024291899</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2050</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>205</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8">
+        <v>382.81895279884299</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9735</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.0913119316101003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2255</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4">
+        <v>20.508678913116398</v>
+      </c>
+      <c r="I10" s="2">
+        <v>358</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8">
+        <v>532.77682614326397</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.8429713249206499</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3130</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.556</v>
+      </c>
+      <c r="I11" s="1">
+        <v>409</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:I11">
+    <sortCondition ref="I2:I11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7BC88DD0-DD28-8142-841F-BB401F434C75}">
+          <x14:colorSeries theme="6" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="7"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="6" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="6" tint="0.39997558519241921"/>
+          <x14:colorLast theme="6" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="6"/>
+          <x14:colorLow theme="6"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!A2:A2</xm:f>
+              <xm:sqref>B2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A3:A3</xm:f>
+              <xm:sqref>B3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A4:A4</xm:f>
+              <xm:sqref>B4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A5:A5</xm:f>
+              <xm:sqref>B5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A6:A6</xm:f>
+              <xm:sqref>B6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A7:A7</xm:f>
+              <xm:sqref>B7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A8:A8</xm:f>
+              <xm:sqref>B8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A9:A9</xm:f>
+              <xm:sqref>B9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A10:A10</xm:f>
+              <xm:sqref>B10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet2!A11:A11</xm:f>
+              <xm:sqref>B11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>